--- a/リハビリ動画.xlsx
+++ b/リハビリ動画.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishiura-air-m2/Desktop/[gitローカル]/VSgithub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A24490B-CB7D-994C-B5C0-371231DDD955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E51605-74D2-B946-879F-4B9350482F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="660" windowWidth="22640" windowHeight="15320" xr2:uid="{14404B96-ADED-D742-9CC3-2C645BDFB09F}"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.youtube.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リハビリ１</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>リハビリ１９</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XbQ06MScArk</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -515,162 +515,161 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{76FD9376-F36B-4B49-B4AC-971AB7488CED}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7D41D789-557E-3346-B0A0-8D4F0CDA17E7}"/>
-    <hyperlink ref="B4:B20" r:id="rId3" display="https://www.youtube.com" xr:uid="{BCA216E7-CA2A-8241-9AE4-51F28AECF676}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2D786D8B-1EBE-0347-88D2-C303B188ABF6}"/>
+    <hyperlink ref="B3:B20" r:id="rId2" display="https://youtu.be/XbQ06MScArk" xr:uid="{43CC9E6D-B6BB-3748-9617-FED54A4ADC5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
